--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Vipr2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H2">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.131970042669555</v>
+        <v>0.1752366666666667</v>
       </c>
       <c r="N2">
-        <v>0.131970042669555</v>
+        <v>0.52571</v>
       </c>
       <c r="O2">
-        <v>0.01370782301153301</v>
+        <v>0.01723504119824304</v>
       </c>
       <c r="P2">
-        <v>0.01370782301153301</v>
+        <v>0.01723504119824304</v>
       </c>
       <c r="Q2">
-        <v>0.4435437372455728</v>
+        <v>0.5960101608644446</v>
       </c>
       <c r="R2">
-        <v>0.4435437372455728</v>
+        <v>5.364091447780001</v>
       </c>
       <c r="S2">
-        <v>0.007022004516439626</v>
+        <v>0.008792762849921407</v>
       </c>
       <c r="T2">
-        <v>0.007022004516439626</v>
+        <v>0.008792762849921405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H3">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I3">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J3">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.47336785297324</v>
+        <v>5.550379</v>
       </c>
       <c r="N3">
-        <v>5.47336785297324</v>
+        <v>16.651137</v>
       </c>
       <c r="O3">
-        <v>0.5685226456540373</v>
+        <v>0.5458960875627037</v>
       </c>
       <c r="P3">
-        <v>0.5685226456540373</v>
+        <v>0.5458960875627037</v>
       </c>
       <c r="Q3">
-        <v>18.39567513747258</v>
+        <v>18.87779734444067</v>
       </c>
       <c r="R3">
-        <v>18.39567513747258</v>
+        <v>169.900176099966</v>
       </c>
       <c r="S3">
-        <v>0.291232866234271</v>
+        <v>0.2784985996510467</v>
       </c>
       <c r="T3">
-        <v>0.291232866234271</v>
+        <v>0.2784985996510467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H4">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I4">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J4">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.02201449711298</v>
+        <v>0.01305433333333333</v>
       </c>
       <c r="N4">
-        <v>4.02201449711298</v>
+        <v>0.039163</v>
       </c>
       <c r="O4">
-        <v>0.4177695313344296</v>
+        <v>0.001283932050839421</v>
       </c>
       <c r="P4">
-        <v>0.4177695313344296</v>
+        <v>0.001283932050839421</v>
       </c>
       <c r="Q4">
-        <v>13.51775982805613</v>
+        <v>0.0444000417148889</v>
       </c>
       <c r="R4">
-        <v>13.51775982805613</v>
+        <v>0.3996003754340001</v>
       </c>
       <c r="S4">
-        <v>0.2140076898711836</v>
+        <v>0.0006550207747455291</v>
       </c>
       <c r="T4">
-        <v>0.2140076898711836</v>
+        <v>0.000655020774745529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.53711574538192</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H5">
-        <v>2.53711574538192</v>
+        <v>10.203518</v>
       </c>
       <c r="I5">
-        <v>0.3866978899034729</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J5">
-        <v>0.3866978899034729</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.131970042669555</v>
+        <v>4.428794333333333</v>
       </c>
       <c r="N5">
-        <v>0.131970042669555</v>
+        <v>13.286383</v>
       </c>
       <c r="O5">
-        <v>0.01370782301153301</v>
+        <v>0.4355849391882138</v>
       </c>
       <c r="P5">
-        <v>0.01370782301153301</v>
+        <v>0.4355849391882139</v>
       </c>
       <c r="Q5">
-        <v>0.3348232731756519</v>
+        <v>15.06309423282156</v>
       </c>
       <c r="R5">
-        <v>0.3348232731756519</v>
+        <v>135.567848095394</v>
       </c>
       <c r="S5">
-        <v>0.005300786233730085</v>
+        <v>0.2222214050564519</v>
       </c>
       <c r="T5">
-        <v>0.005300786233730085</v>
+        <v>0.2222214050564519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H6">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J6">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.47336785297324</v>
+        <v>0.1752366666666667</v>
       </c>
       <c r="N6">
-        <v>5.47336785297324</v>
+        <v>0.52571</v>
       </c>
       <c r="O6">
-        <v>0.5685226456540373</v>
+        <v>0.01723504119824304</v>
       </c>
       <c r="P6">
-        <v>0.5685226456540373</v>
+        <v>0.01723504119824304</v>
       </c>
       <c r="Q6">
-        <v>13.88656776004564</v>
+        <v>0.45208746876</v>
       </c>
       <c r="R6">
-        <v>13.88656776004564</v>
+        <v>4.06878721884</v>
       </c>
       <c r="S6">
-        <v>0.219846507436756</v>
+        <v>0.006669513644637379</v>
       </c>
       <c r="T6">
-        <v>0.219846507436756</v>
+        <v>0.006669513644637378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H7">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J7">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02201449711298</v>
+        <v>5.550379</v>
       </c>
       <c r="N7">
-        <v>4.02201449711298</v>
+        <v>16.651137</v>
       </c>
       <c r="O7">
-        <v>0.4177695313344296</v>
+        <v>0.5458960875627037</v>
       </c>
       <c r="P7">
-        <v>0.4177695313344296</v>
+        <v>0.5458960875627037</v>
       </c>
       <c r="Q7">
-        <v>10.20431630877969</v>
+        <v>14.319245169972</v>
       </c>
       <c r="R7">
-        <v>10.20431630877969</v>
+        <v>128.873206529748</v>
       </c>
       <c r="S7">
-        <v>0.1615505962329867</v>
+        <v>0.2112476183071015</v>
       </c>
       <c r="T7">
-        <v>0.1615505962329867</v>
+        <v>0.2112476183071015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.662918103696858</v>
+        <v>2.579868</v>
       </c>
       <c r="H8">
-        <v>0.662918103696858</v>
+        <v>7.739604</v>
       </c>
       <c r="I8">
-        <v>0.1010395494746329</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J8">
-        <v>0.1010395494746329</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.131970042669555</v>
+        <v>0.01305433333333333</v>
       </c>
       <c r="N8">
-        <v>0.131970042669555</v>
+        <v>0.039163</v>
       </c>
       <c r="O8">
-        <v>0.01370782301153301</v>
+        <v>0.001283932050839421</v>
       </c>
       <c r="P8">
-        <v>0.01370782301153301</v>
+        <v>0.001283932050839421</v>
       </c>
       <c r="Q8">
-        <v>0.08748533043129483</v>
+        <v>0.033678456828</v>
       </c>
       <c r="R8">
-        <v>0.08748533043129483</v>
+        <v>0.303106111452</v>
       </c>
       <c r="S8">
-        <v>0.001385032261363301</v>
+        <v>0.0004968483819309767</v>
       </c>
       <c r="T8">
-        <v>0.001385032261363301</v>
+        <v>0.0004968483819309766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.662918103696858</v>
+        <v>2.579868</v>
       </c>
       <c r="H9">
-        <v>0.662918103696858</v>
+        <v>7.739604</v>
       </c>
       <c r="I9">
-        <v>0.1010395494746329</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J9">
-        <v>0.1010395494746329</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.47336785297324</v>
+        <v>4.428794333333333</v>
       </c>
       <c r="N9">
-        <v>5.47336785297324</v>
+        <v>13.286383</v>
       </c>
       <c r="O9">
-        <v>0.5685226456540373</v>
+        <v>0.4355849391882138</v>
       </c>
       <c r="P9">
-        <v>0.5685226456540373</v>
+        <v>0.4355849391882139</v>
       </c>
       <c r="Q9">
-        <v>3.628394637928364</v>
+        <v>11.425704779148</v>
       </c>
       <c r="R9">
-        <v>3.628394637928364</v>
+        <v>102.831343012332</v>
       </c>
       <c r="S9">
-        <v>0.05744327198301028</v>
+        <v>0.168560066778981</v>
       </c>
       <c r="T9">
-        <v>0.05744327198301028</v>
+        <v>0.168560066778981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.057196</v>
+      </c>
+      <c r="I10">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J10">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1752366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.52571</v>
+      </c>
+      <c r="O10">
+        <v>0.01723504119824304</v>
+      </c>
+      <c r="P10">
+        <v>0.01723504119824304</v>
+      </c>
+      <c r="Q10">
+        <v>0.1201653899066667</v>
+      </c>
+      <c r="R10">
+        <v>1.08148850916</v>
+      </c>
+      <c r="S10">
+        <v>0.001772764703684251</v>
+      </c>
+      <c r="T10">
+        <v>0.00177276470368425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.662918103696858</v>
-      </c>
-      <c r="H10">
-        <v>0.662918103696858</v>
-      </c>
-      <c r="I10">
-        <v>0.1010395494746329</v>
-      </c>
-      <c r="J10">
-        <v>0.1010395494746329</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.02201449711298</v>
-      </c>
-      <c r="N10">
-        <v>4.02201449711298</v>
-      </c>
-      <c r="O10">
-        <v>0.4177695313344296</v>
-      </c>
-      <c r="P10">
-        <v>0.4177695313344296</v>
-      </c>
-      <c r="Q10">
-        <v>2.666266223467408</v>
-      </c>
-      <c r="R10">
-        <v>2.666266223467408</v>
-      </c>
-      <c r="S10">
-        <v>0.04221124523025929</v>
-      </c>
-      <c r="T10">
-        <v>0.04221124523025929</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.057196</v>
+      </c>
+      <c r="I11">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J11">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.550379</v>
+      </c>
+      <c r="N11">
+        <v>16.651137</v>
+      </c>
+      <c r="O11">
+        <v>0.5458960875627037</v>
+      </c>
+      <c r="P11">
+        <v>0.5458960875627037</v>
+      </c>
+      <c r="Q11">
+        <v>3.806072492428</v>
+      </c>
+      <c r="R11">
+        <v>34.254652431852</v>
+      </c>
+      <c r="S11">
+        <v>0.05614986960455549</v>
+      </c>
+      <c r="T11">
+        <v>0.05614986960455547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.057196</v>
+      </c>
+      <c r="I12">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J12">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01305433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.039163</v>
+      </c>
+      <c r="O12">
+        <v>0.001283932050839421</v>
+      </c>
+      <c r="P12">
+        <v>0.001283932050839421</v>
+      </c>
+      <c r="Q12">
+        <v>0.008951774105333335</v>
+      </c>
+      <c r="R12">
+        <v>0.08056596694800001</v>
+      </c>
+      <c r="S12">
+        <v>0.0001320628941629155</v>
+      </c>
+      <c r="T12">
+        <v>0.0001320628941629155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.057196</v>
+      </c>
+      <c r="I13">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J13">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.428794333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.286383</v>
+      </c>
+      <c r="O13">
+        <v>0.4355849391882138</v>
+      </c>
+      <c r="P13">
+        <v>0.4355849391882139</v>
+      </c>
+      <c r="Q13">
+        <v>3.036965995785334</v>
+      </c>
+      <c r="R13">
+        <v>27.33269396206801</v>
+      </c>
+      <c r="S13">
+        <v>0.04480346735278094</v>
+      </c>
+      <c r="T13">
+        <v>0.04480346735278093</v>
       </c>
     </row>
   </sheetData>
